--- a/data_files/Vibrio_vulnificus_2018.xlsx
+++ b/data_files/Vibrio_vulnificus_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pokey\Documents\NSS\Projects\capstone_project\Foodborne_Illness\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD79A72C-20F1-473A-8BF9-02353763858B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE44771-B6AF-4370-9507-BCCEA7A05E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="62">
   <si>
     <t>Hospitalized with sepsis in ICU</t>
   </si>
@@ -1542,7 +1542,9 @@
   </sheetPr>
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
@@ -1641,7 +1643,9 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="120"/>
+      <c r="E5" s="120" t="s">
+        <v>50</v>
+      </c>
       <c r="F5" s="121" t="s">
         <v>37</v>
       </c>
